--- a/tests/ExcelProcesser.Tests/resources/matrix.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/matrix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5265156-61C9-4431-B17A-08CEFCAF2203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455EAE2-5C70-4EB3-B09E-C43D3C1199C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -180,6 +180,89 @@
   </si>
   <si>
     <t>C2_R2C</t>
+  </si>
+  <si>
+    <t>column many</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>row many</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_2</t>
+  </si>
+  <si>
+    <t>cm_skip_3</t>
+  </si>
+  <si>
+    <t>cm_skip_4</t>
+  </si>
+  <si>
+    <t>column many with skip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxOR_A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxOR_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_n1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_n2</t>
+  </si>
+  <si>
+    <t>cm_n3</t>
+  </si>
+  <si>
+    <t>cm_n4</t>
+  </si>
+  <si>
+    <t>rm_n1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm_n2</t>
+  </si>
+  <si>
+    <t>rm_n3</t>
+  </si>
+  <si>
+    <t>rm_n4</t>
+  </si>
+  <si>
+    <t>mx until</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,15 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,25 +653,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,211 +679,346 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="C26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="C39" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="C42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="C40" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="C43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="C45" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="C48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="C46" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D49" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A33:A35"/>
+  <mergeCells count="11">
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
